--- a/Fundamentals.xlsx
+++ b/Fundamentals.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tbd\GCPPrepGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B46E9A-4F4C-4B64-9842-A47B336FA89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C4B0D-FF07-464C-85B4-EC91FF36AB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="127" windowWidth="21957" windowHeight="11612" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Intro" sheetId="1" r:id="rId1"/>
-    <sheet name="Pillars" sheetId="2" r:id="rId2"/>
+    <sheet name="Intro" sheetId="3" r:id="rId1"/>
+    <sheet name="pillar #1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -43,43 +43,7 @@
     <t>The Well-Architected Framework is organized into five pillars</t>
   </si>
   <si>
-    <t>Level 1</t>
-  </si>
-  <si>
     <t>Operational excellence</t>
-  </si>
-  <si>
-    <t>involves designing, implementing, and managing cloud solutions that provide value, performance, security, and reliability. The recommendations in this pillar help you to continuously improve and adapt workloads to meet the dynamic and ever-evolving needs in the cloud.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">embrace </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos"/>
-        <family val="2"/>
-      </rPr>
-      <t>automation, orchestration, and data-driven insights</t>
-    </r>
-  </si>
-  <si>
-    <t>Level 2</t>
-  </si>
-  <si>
-    <t>Automation helps to eliminate toil. It also streamlines and builds guardrails around repetitive tasks.</t>
-  </si>
-  <si>
-    <t>Orchestration helps to coordinate complex processes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data-driven insights enable evidence-based decision-making. </t>
-  </si>
-  <si>
-    <t>goes beyond technical proficiency in cloud operations. It includes a cultural shift that encourages continuous learning and experimentation.</t>
   </si>
   <si>
     <t>Principles</t>
@@ -167,12 +131,414 @@
   <si>
     <t>Pillars</t>
   </si>
+  <si>
+    <t>Operational excellence pillar</t>
+  </si>
+  <si>
+    <t>Different organizations might interpret operational readiness differently. Operational readiness is how your organization prepares to successfully operate workloads on Google Cloud. Preparing to operate a complex, multilayered cloud workload requires careful planning for both go-live and day-2 operations. These operations are often called CloudOps.</t>
+  </si>
+  <si>
+    <t>Principles Overview</t>
+  </si>
+  <si>
+    <t>Provide Security &amp; Safety from strangers &amp; animals</t>
+  </si>
+  <si>
+    <t>Compliance include obtaining muncipal / CRDA approvals</t>
+  </si>
+  <si>
+    <t>Must accommodate necessary rooms such as kitchen, an office room etc which covers the day to day challenges</t>
+  </si>
+  <si>
+    <t>Includes Material cost, Development cost, Maintenance cost</t>
+  </si>
+  <si>
+    <t>obtained by optimally utilizing all the materials - proper mixing will make the concrete stronger and thus the building</t>
+  </si>
+  <si>
+    <t>Ref Model</t>
+  </si>
+  <si>
+    <t>Ensure operational readiness and performance using CloudOps</t>
+  </si>
+  <si>
+    <t>It emphasizes establishing clear expectations and commitments for service performance, implementing robust monitoring and alerting, conducting performance testing, and proactively planning for capacity needs.</t>
+  </si>
+  <si>
+    <t>Focus Areas</t>
+  </si>
+  <si>
+    <t>Define SLOs and SLAs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">involves designing, implementing, and managing cloud solutions that provide value, performance, security, and reliability. The recommendations in this pillar help you to continuously improve and adapt workloads to meet the dynamic and ever-evolving needs in the cloud.
+Embrace 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. Automation helps to eliminate toil. It also streamlines and builds guardrails around repetitive tasks.
+2. Orchestration helps to coordinate complex processes.
+3. Data-driven insights enable evidence-based decision-making. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>goes beyond technical proficiency in cloud operations. It includes a cultural shift that encourages continuous learning and experimentation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Recommendations</t>
+  </si>
+  <si>
+    <t>Workforce</t>
+  </si>
+  <si>
+    <t>1. Defining clear roles and responsibilities for the teams that manage and operate the cloud resources.
+2. Ensuring that team members have appropriate skills.
+3. Developing a learning program.
+4. Establishing a clear team structure.
+5. Hiring the required talent.</t>
+  </si>
+  <si>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t>1. Observability.
+2. Managing service disruptions.
+3. Cloud delivery.
+4. Core cloud operations.</t>
+  </si>
+  <si>
+    <t>Tooling</t>
+  </si>
+  <si>
+    <t>Tools that are required to support CloudOps processes.</t>
+  </si>
+  <si>
+    <t>Governance</t>
+  </si>
+  <si>
+    <t>1. Service levels and reporting.
+2. Cloud financials.
+3. Cloud operating model.
+4. Architectural review and governance boards.
+5. Cloud architecture and compliance.</t>
+  </si>
+  <si>
+    <t>SLAs outline the commitments to customers regarding service availability, performance, and support, including any penalties or remedies for noncompliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLIs are specific metrics that you can use to measure and track SLOs over time. </t>
+  </si>
+  <si>
+    <t>Implement comprehensive observability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing a combination of observability solutions provides you with a comprehensive observability strategy that covers various aspects of your cloud infrastructure and applications. Google Cloud Observability is a unified platform for collecting, analyzing, and visualizing metrics, logs, and traces from various Google Cloud services, applications, and external sources. </t>
+  </si>
+  <si>
+    <t>Implement performance and load testing</t>
+  </si>
+  <si>
+    <t>Load testing simulates realistic traffic patterns. Stress testing pushes the system to its limits to identify potential bottlenecks and performance limitations</t>
+  </si>
+  <si>
+    <t>regularly conducting performance testing and implementing the necessary optimizations, can ensure that cloud-based applications and infrastructure always run at peak performance, and deliver a seamless and responsive experience for your users.</t>
+  </si>
+  <si>
+    <t>Plan and manage capacity</t>
+  </si>
+  <si>
+    <t>Planning for future capacity includes understanding and managing quotas for various resources like compute instances, storage, and API requests. By analyzing historical usage patterns, growth projections, and business requirements, you can accurately anticipate future capacity requirements</t>
+  </si>
+  <si>
+    <t>Continuously monitor and optimize</t>
+  </si>
+  <si>
+    <t>To manage and optimize cloud workloads, you must establish a process for continuously monitoring and analyzing performance metrics.</t>
+  </si>
+  <si>
+    <t>Manage incidents and problems</t>
+  </si>
+  <si>
+    <t>Minimize the impact of cloud incidents and prevent recurrence through comprehensive observability, clear incident response procedures, thorough retrospectives, and preventive measures.</t>
+  </si>
+  <si>
+    <t>Incident management and problem management are important components of a functional operations environment. How you respond to, categorize, and solve incidents of differing severity can significantly affect your operations.</t>
+  </si>
+  <si>
+    <t>Continuous monitoring</t>
+  </si>
+  <si>
+    <t>Identify and resolve issues quickly.</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Streamline tasks and improve efficiency.</t>
+  </si>
+  <si>
+    <t>Orchestration</t>
+  </si>
+  <si>
+    <t>Coordinate and manage cloud resources effectively.</t>
+  </si>
+  <si>
+    <t>Data-driven insights</t>
+  </si>
+  <si>
+    <t>Optimize cloud operations and make informed decisions.</t>
+  </si>
+  <si>
+    <t>Establish clear incident response procedures</t>
+  </si>
+  <si>
+    <t>Regular training and preparation helps to ensure that teams are equipped with the knowledge and skills to respond to incidents effectively.</t>
+  </si>
+  <si>
+    <t>Documenting incident response procedures in a runbook or playbook, you can provide a standardized reference guide for teams to follow during an incident. The runbook must outline the steps to be taken at each stage of the incident response process, including communication, triage, investigation, and resolution. It must also include information about relevant tools and resources and contact information for important personnel. You must regularly review and update the runbook to ensure that it remains current and effective.</t>
+  </si>
+  <si>
+    <t>Centralize incident management</t>
+  </si>
+  <si>
+    <t>For effective tracking and management throughout the incident lifecycle, consider using a centralized incident management system.</t>
+  </si>
+  <si>
+    <t>Conduct thorough post-incident reviews</t>
+  </si>
+  <si>
+    <t>After an incident occurs, you must conduct a detailed post-incident review (PIR), which is also known as a postmortem, to identify the root cause, contributing factors, and lessons learned.</t>
+  </si>
+  <si>
+    <t>Maintain a knowledge base</t>
+  </si>
+  <si>
+    <t>A knowledge base of known issues, solutions, and troubleshooting guides is essential for incident management and resolution. Team members can use the knowledge base to quickly identify and address common problems.</t>
+  </si>
+  <si>
+    <t>Implementing a knowledge base helps to reduce the need for escalation and it improves overall efficiency.</t>
+  </si>
+  <si>
+    <t>Automate incident response</t>
+  </si>
+  <si>
+    <t>TBR</t>
+  </si>
+  <si>
+    <t>Manage and optimize cloud resources</t>
+  </si>
+  <si>
+    <t>Optimize and manage cloud resources through strategies like right-sizing, autoscaling, and by using effective cost monitoring tools.</t>
+  </si>
+  <si>
+    <t>Cloud resource management and optimization play a vital role in optimizing cloud spending, resource usage, and infrastructure efficiency. It includes various strategies and best practices aimed at maximizing the value and return from your cloud spending.</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Using automation and data analytics to achieve peak performance and cost savings.</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Scaling resources effortlessly to meet fluctuating demands and deliver optimal results.</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Adapting infrastructure and processes to accommodate rapid growth and diverse workloads.</t>
+  </si>
+  <si>
+    <t>Right-size resources</t>
+  </si>
+  <si>
+    <t>Continuously monitoring resource utilization and adjusting resource allocation to match actual demand are essential for efficient cloud resource management.</t>
+  </si>
+  <si>
+    <t>Cloud Monitoring and Recommender can help you to identify opportunities for right-sizing.</t>
+  </si>
+  <si>
+    <t>Use autoscaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoscaling compute and other resources helps to ensure optimal performance and cost efficiency of your cloud-based applications. </t>
+  </si>
+  <si>
+    <t>Leverage cost optimization strategies</t>
+  </si>
+  <si>
+    <t>Committed use discounts (CUDs) are discounts for committing to a certain level of usage over a period of time.
+Sustained use discounts in Compute Engine provide discounts for consistent usage of a service.
+Spot VMs provide access to unused VM capacity at a lower cost compared to regular VMs.</t>
+  </si>
+  <si>
+    <t>Track resource usage and costs</t>
+  </si>
+  <si>
+    <t>Tools like Cloud Billing and Cost Management help you to get a comprehensive understanding of your spending patterns. These tools provide detailed insights into your cloud usage and they let you identify trends, forecast costs, and make informed decisions. By analyzing historical data and current spending patterns, you can identify the focus areas for your cost-optimization efforts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regularly review and update your tags, labels, and cost analysis tools to ensure that you have the most up-to-date information on your cloud usage and costs. </t>
+  </si>
+  <si>
+    <t>Establish cost allocation and budgeting</t>
+  </si>
+  <si>
+    <t>To ensure accountability and transparency, you need to have clear mechanisms for cost allocation and chargeback. By allocating costs to specific teams, projects, or individuals, your organization can ensure that each of these entities is responsible for its cloud usage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establishing budgets for different teams or projects is another essential aspect of cloud cost management. Budgets enable your organization to define spending limits and track actual expenses against those limits. This approach lets you make proactive decisions to prevent uncontrolled spending. By setting realistic and achievable budgets, you can ensure that cloud resources are used efficiently and aligned with business objectives. Regular monitoring of actual spending against budgets helps you to identify variances and address potential overruns promptly.
+To monitor budgets, you can use tools like Cloud Billing budgets and alerts. </t>
+  </si>
+  <si>
+    <t>Automate and manage change</t>
+  </si>
+  <si>
+    <t>Change management and automation play a crucial role in ensuring smooth and controlled transitions within cloud environments. For effective change management, you need to use strategies and best practices that minimize disruptions and ensure that changes are integrated seamlessly with existing systems.</t>
+  </si>
+  <si>
+    <t>Change governance</t>
+  </si>
+  <si>
+    <t>Establish clear policies and procedures for change management, including approval processes and communication plans.</t>
+  </si>
+  <si>
+    <t>Risk assessment</t>
+  </si>
+  <si>
+    <t>Identify potential risks associated with changes and mitigate them through risk management techniques.</t>
+  </si>
+  <si>
+    <t>Testing and validation</t>
+  </si>
+  <si>
+    <t>Thoroughly test changes to ensure that they meet functional and performance requirements and mitigate potential regressions.</t>
+  </si>
+  <si>
+    <t>Implement changes in a controlled manner, ensuring that users are seamlessly transitioned to the new environment, with mechanisms to seamlessly roll back if needed.</t>
+  </si>
+  <si>
+    <t>Controlled deployment</t>
+  </si>
+  <si>
+    <t>Adopt IaC</t>
+  </si>
+  <si>
+    <t>Infrastructure as code (IaC) is a transformative approach for managing cloud infrastructure.
+Human-readable resource configurations</t>
+  </si>
+  <si>
+    <t>infrastructure is provisioned and configured the same way every time, regardless of who is performing the deployment.</t>
+  </si>
+  <si>
+    <t>storing your IaC code in a version control system, you can track changes, and identify when changes were made and by whom. If necessary, you can easily roll back</t>
+  </si>
+  <si>
+    <t>Implement version control</t>
+  </si>
+  <si>
+    <t>provides robust change management and risk mitigation capabilities</t>
+  </si>
+  <si>
+    <t>Build CI/CD pipelines</t>
+  </si>
+  <si>
+    <t>CI/CD pipelines automate the building, testing, and deployment stages, which enables faster and more frequent releases with improved quality control.</t>
+  </si>
+  <si>
+    <t>Use configuration management tools</t>
+  </si>
+  <si>
+    <t>1. Significant reduction in the risk of manual errors
+2. Improvement in operational efficiency
+3. Simplified management of complex cloud infrastructure</t>
+  </si>
+  <si>
+    <t>Automate testing</t>
+  </si>
+  <si>
+    <t>By validating changes before deployment, you can significantly reduce the risk of errors and regressions,</t>
+  </si>
+  <si>
+    <t>1. Early detection of bugs and defects
+2. High quality and standards-based code</t>
+  </si>
+  <si>
+    <t>Continuously improve and innovate</t>
+  </si>
+  <si>
+    <t>Focus on ongoing enhancements and the introduction of new solutions to stay competitive.</t>
+  </si>
+  <si>
+    <t>Automate processes, streamline change management, and alleviate the burden of manual labor.</t>
+  </si>
+  <si>
+    <t>To continuously improve and innovate in the cloud, you need to focus on continuous learning, experimentation, and adaptation. This helps you to explore new technologies and optimize existing processes and it promotes a culture of excellence that enables your organization to achieve and maintain industry leadership.</t>
+  </si>
+  <si>
+    <t>Accelerate innovation</t>
+  </si>
+  <si>
+    <t>Explore new technologies and services to enhance capabilities and drive differentiation.</t>
+  </si>
+  <si>
+    <t>Reduce costs</t>
+  </si>
+  <si>
+    <t>Identify and eliminate inefficiencies through process-improvement initiatives.</t>
+  </si>
+  <si>
+    <t>Enhance agility</t>
+  </si>
+  <si>
+    <t>Adapt rapidly to changing market demands and customer needs.</t>
+  </si>
+  <si>
+    <t>Improve decision making</t>
+  </si>
+  <si>
+    <t>Gain valuable insights from data and analytics to make data-driven decisions.</t>
+  </si>
+  <si>
+    <t>Foster a culture of learning</t>
+  </si>
+  <si>
+    <t>Encourage teams to experiment, share knowledge, and learn continuously. Adopt a blameless culture where failures are viewed as opportunities for growth and improvement.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +581,28 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +633,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -261,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,32 +709,59 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -588,18 +1043,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A1C26A-9004-4E21-A04B-E14AB4B3F96C}">
+  <dimension ref="C1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.8984375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8984375" style="11" customWidth="1"/>
     <col min="4" max="4" width="34.5" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.19921875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.296875" style="5" customWidth="1"/>
@@ -611,28 +1066,28 @@
     <col min="15" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="15"/>
+    <row r="1" spans="3:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="12"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="J1" s="11" t="s">
-        <v>14</v>
+      <c r="J1" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -644,13 +1099,13 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
@@ -660,22 +1115,22 @@
     </row>
     <row r="6" spans="3:11" ht="32.25" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>27</v>
+      <c r="H6" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -683,40 +1138,40 @@
     <row r="7" spans="3:11" ht="177.45" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="3:11" ht="177.45" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
-      <c r="D8" s="9" t="s">
-        <v>19</v>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.3">
@@ -724,124 +1179,632 @@
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>38</v>
+      <c r="D13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="3:11" ht="48.4" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="5" t="s">
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:8" ht="64.55" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="E19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>39</v>
-      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="D2:H2"/>
     <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D2:H2"/>
     <mergeCell ref="D11:H11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{E466B9C9-787B-43B5-9645-24C0FC018244}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{B6E41145-C5D7-430B-90E3-CC8486D32389}"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{E81F5D0E-16D8-40BF-B28E-11E322FA5A33}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{BF4DF8EC-36C9-4A1C-835C-1CA99BAFF4E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C264F3A-E18A-40D7-9D81-81DC3CA76107}">
-  <dimension ref="E1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.8984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.19921875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="32.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.296875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="32.69921875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.8984375" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:7" ht="18.45" x14ac:dyDescent="0.3">
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" ht="80.650000000000006" x14ac:dyDescent="0.3">
-      <c r="F6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="F7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="F9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" ht="32.25" x14ac:dyDescent="0.3">
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" ht="48.4" x14ac:dyDescent="0.3">
-      <c r="F12" s="6" t="s">
-        <v>13</v>
-      </c>
+    <row r="1" spans="3:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="12"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="3:15" ht="172.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="3:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="3:15" ht="48.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="3:15" ht="106.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="3:15" ht="129.05000000000001" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" ht="64.55" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" ht="64.55" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" ht="80.650000000000006" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="3:15" ht="209.7" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="64.55" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="129.05000000000001" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="112.9" x14ac:dyDescent="0.3">
+      <c r="C19" s="12"/>
+      <c r="D19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="129.05000000000001" x14ac:dyDescent="0.3">
+      <c r="C20" s="12"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="112.9" x14ac:dyDescent="0.3">
+      <c r="C21" s="12"/>
+      <c r="D21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="96.8" x14ac:dyDescent="0.3">
+      <c r="C22" s="12"/>
+      <c r="D22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="241.95" x14ac:dyDescent="0.3">
+      <c r="C23" s="12"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L9:M9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fundamentals.xlsx
+++ b/Fundamentals.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tbd\GCPPrepGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C4B0D-FF07-464C-85B4-EC91FF36AB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE6F295-51BA-4431-9AF9-FCD919495A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="127" windowWidth="21957" windowHeight="11612" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="127" windowWidth="21957" windowHeight="11612" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="3" r:id="rId1"/>
     <sheet name="pillar #1" sheetId="1" r:id="rId2"/>
+    <sheet name="pillar #2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="180">
   <si>
     <t>Name</t>
   </si>
@@ -532,6 +533,152 @@
   </si>
   <si>
     <t>Encourage teams to experiment, share knowledge, and learn continuously. Adopt a blameless culture where failures are viewed as opportunities for growth and improvement.</t>
+  </si>
+  <si>
+    <t>Security, privacy, and compliance pillar</t>
+  </si>
+  <si>
+    <t>Implement security by design</t>
+  </si>
+  <si>
+    <t>Integrate cloud security and network security considerations starting from the initial design phase of your applications and infrastructure. Google Cloud provides architecture blueprints and recommendations to help you apply this principle.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>Secure by default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: focuses on ensuring that a system's default settings are set to a secure mode, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>Secure by design</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: emphasizes proactively incorporating security considerations throughout a system's development lifecycle. This approach is about anticipating potential threats and vulnerabilities early and making design choices that mitigate risks. </t>
+    </r>
+  </si>
+  <si>
+    <t>Choose system components that help to secure your workloads</t>
+  </si>
+  <si>
+    <t>provides recommendations to help you design, deploy, and operate cloud workloads that meet your requirements for security, privacy, and compliance.
+To ensure that your Google Cloud workloads meet your security, privacy, and compliance requirements, all of the stakeholders in your organization must adopt a collaborative approach. In addition, you must recognize that cloud security is a shared responsibility between you and Google. For more information, see Shared responsibilities and shared fate on Google Cloud.
+A security-focused organizational mindset is crucial for successful cloud adoption and operation. This mindset should be deeply ingrained in your organization's culture and reflected in its practices, which are guided by core security principles as described earlier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastructure security	</t>
+  </si>
+  <si>
+    <t>Secure network infrastructure.
+Encrypt data in transit and at rest.
+Control traffic flow.
+Secure IaaS and PaaS services.
+Protect against unauthorized access.</t>
+  </si>
+  <si>
+    <t>Identity and access management</t>
+  </si>
+  <si>
+    <t>Use authentication, authorization, and access controls.
+Manage cloud identities.
+Manage identity and access management policies.</t>
+  </si>
+  <si>
+    <t>Data security</t>
+  </si>
+  <si>
+    <t>Store data in Google Cloud securely.
+Control access to the data.
+Discover and classify the data.
+Design necessary controls, such as encryption, access controls, and data loss prevention.
+Protect data at rest, in transit, and in use.</t>
+  </si>
+  <si>
+    <t>AI and ML security</t>
+  </si>
+  <si>
+    <t>Apply security controls at different layers of the AI and ML infrastructure and pipeline.
+Ensure model safety.</t>
+  </si>
+  <si>
+    <t>Security operations (SecOps)</t>
+  </si>
+  <si>
+    <t>Adopt a modern SecOps platform and set of practices, for effective incident management, threat detection, and response processes.
+Monitor systems and applications continuously for security events.</t>
+  </si>
+  <si>
+    <t>Application security</t>
+  </si>
+  <si>
+    <t>Secure applications against software vulnerabilities and attacks.</t>
+  </si>
+  <si>
+    <t>Cloud governance, risk, and compliance</t>
+  </si>
+  <si>
+    <t>Establish policies, procedures, and controls to manage cloud resources effectively and securely.</t>
+  </si>
+  <si>
+    <t>Logging, auditing, and monitoring</t>
+  </si>
+  <si>
+    <t>Analyze logs to identify potential threats.
+Track and record system activities for compliance and security analysis.</t>
+  </si>
+  <si>
+    <t>We recommend that you implement security at each layer of your application and infrastructure stack by applying a defense-in-depth approach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perform a risk assessment to determine the security features &amp; remember that you have a shared responsibility arrangement with your cloud provider. </t>
+  </si>
+  <si>
+    <t>Use hardened and attested infrastructure and services</t>
+  </si>
+  <si>
+    <t>Common Focus Areas</t>
+  </si>
+  <si>
+    <t>Contains lots of Best Practices for diff components. TBR</t>
+  </si>
+  <si>
+    <t>Encrypt data at rest and in transit</t>
+  </si>
+  <si>
+    <t>Use a never trust, always verify approach, where access to resources is granted based on continuous verification of trust. Google Cloud supports this principle through products like Chrome Enterprise Premium and Identity-Aware Proxy (IAP).</t>
+  </si>
+  <si>
+    <t>The zero-trust model shifts the security focus from perimeter-based security to an approach where no user or device is considered to be inherently trustworthy. Instead, every access request must be verified, regardless of its origin. This approach involves authenticating and authorizing every user and device, validating their context (location and device posture), and granting least privilege access to only the necessary resources.</t>
+  </si>
+  <si>
+    <t>Secure your network</t>
   </si>
 </sst>
 </file>
@@ -689,7 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,31 +883,52 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1081,13 +1249,13 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1099,13 +1267,13 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
@@ -1179,13 +1347,13 @@
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
@@ -1281,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
@@ -1325,17 +1493,17 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -1347,17 +1515,17 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
@@ -1366,22 +1534,22 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="21" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="23" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="K6" s="23"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="24" t="s">
         <v>135</v>
       </c>
@@ -1389,26 +1557,26 @@
     </row>
     <row r="7" spans="3:15" ht="48.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="M7" s="17"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
@@ -1417,26 +1585,26 @@
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17" t="s">
+      <c r="I9" s="19"/>
+      <c r="J9" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17" t="s">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="M9" s="17"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
@@ -1517,7 +1685,7 @@
       <c r="E13" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="16" t="s">
         <v>74</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -1693,7 +1861,7 @@
       <c r="H20" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="17" t="s">
         <v>107</v>
       </c>
       <c r="J20" s="6" t="s">
@@ -1787,12 +1955,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J9:K9"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D4:L4"/>
@@ -1804,6 +1966,558 @@
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F580296B-2028-46F9-A1BF-412C45F49169}">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8984375" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="46" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.19921875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="32.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.296875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="32.69921875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.8984375" style="5" customWidth="1"/>
+    <col min="19" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="28"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" customFormat="1" ht="150.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" s="27" customFormat="1" ht="55.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" customFormat="1" ht="122.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" customFormat="1" ht="91.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" customFormat="1" ht="82.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" customFormat="1" ht="209.7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" s="5" customFormat="1" ht="64.55" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+    </row>
+    <row r="17" spans="1:18" s="5" customFormat="1" ht="96.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+    </row>
+    <row r="18" spans="1:18" s="5" customFormat="1" ht="112.9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+    </row>
+    <row r="19" spans="1:18" s="5" customFormat="1" ht="241.95" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="28"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="28"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+    </row>
+    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="28"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="28"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+    </row>
+    <row r="23" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="28"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+    </row>
+    <row r="24" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="28"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+    </row>
+    <row r="25" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="28"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+    </row>
+    <row r="26" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="28"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
